--- a/Code/Results/Cases/Case_3_215/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_215/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.38289652615823</v>
+        <v>8.894566086880333</v>
       </c>
       <c r="C2">
-        <v>7.111246250178431</v>
+        <v>4.257033412227463</v>
       </c>
       <c r="D2">
-        <v>7.902316268154601</v>
+        <v>10.2410816369089</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.65187224989095</v>
+        <v>34.52407848195887</v>
       </c>
       <c r="G2">
-        <v>2.108386168631986</v>
+        <v>3.665015584202522</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.06581581855243</v>
+        <v>23.63849788701656</v>
       </c>
       <c r="J2">
-        <v>7.044101451174263</v>
+        <v>11.4373519350174</v>
       </c>
       <c r="K2">
-        <v>11.23844543837919</v>
+        <v>9.134507244806032</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.24111071725246</v>
+        <v>15.96144507318415</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.6143297232461</v>
+        <v>25.60824342392698</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.61875326922276</v>
+        <v>8.616210680144381</v>
       </c>
       <c r="C3">
-        <v>6.698720964251768</v>
+        <v>4.067635136018182</v>
       </c>
       <c r="D3">
-        <v>7.561160240064176</v>
+        <v>10.19494186520907</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.46317221215315</v>
+        <v>34.60141949757784</v>
       </c>
       <c r="G3">
-        <v>2.113084811089009</v>
+        <v>3.666778967141621</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.2593792978134</v>
+        <v>23.73639263940846</v>
       </c>
       <c r="J3">
-        <v>7.001429818314891</v>
+        <v>11.45709493299023</v>
       </c>
       <c r="K3">
-        <v>10.61914107125552</v>
+        <v>8.954745468390767</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.6891665281375</v>
+        <v>15.88167870352883</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.68853164440781</v>
+        <v>25.69668982894278</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.12321645907624</v>
+        <v>8.441786187800343</v>
       </c>
       <c r="C4">
-        <v>6.432211994926283</v>
+        <v>3.947034035510015</v>
       </c>
       <c r="D4">
-        <v>7.347115117629495</v>
+        <v>10.16828796351986</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.36639107196615</v>
+        <v>34.65656064225659</v>
       </c>
       <c r="G4">
-        <v>2.116060594246374</v>
+        <v>3.667919343004601</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.3884140546053</v>
+        <v>23.80068773081309</v>
       </c>
       <c r="J4">
-        <v>6.978850316314582</v>
+        <v>11.4708659654549</v>
       </c>
       <c r="K4">
-        <v>10.21968190381296</v>
+        <v>8.843709814135901</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.34138824037855</v>
+        <v>15.83503682105965</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.74728107351971</v>
+        <v>25.75597084787127</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.91467072207381</v>
+        <v>8.369932457087623</v>
       </c>
       <c r="C5">
-        <v>6.320312262664506</v>
+        <v>3.896869630099502</v>
       </c>
       <c r="D5">
-        <v>7.258865655238872</v>
+        <v>10.15785602851997</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.33164048692532</v>
+        <v>34.68095209816802</v>
       </c>
       <c r="G5">
-        <v>2.117296572519259</v>
+        <v>3.668398597183369</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.44346566429551</v>
+        <v>23.82794128628838</v>
       </c>
       <c r="J5">
-        <v>6.97054427047928</v>
+        <v>11.47689242330085</v>
       </c>
       <c r="K5">
-        <v>10.05213255429736</v>
+        <v>8.798354767817534</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.19762500727187</v>
+        <v>15.81663147101093</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.77440676021836</v>
+        <v>25.78137758531409</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.87964329423568</v>
+        <v>8.357957782910299</v>
       </c>
       <c r="C6">
-        <v>6.301533409804018</v>
+        <v>3.888480443538578</v>
       </c>
       <c r="D6">
-        <v>7.244154021915102</v>
+        <v>10.15615000080562</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.32614994028159</v>
+        <v>34.68511819304872</v>
       </c>
       <c r="G6">
-        <v>2.117503228367817</v>
+        <v>3.668479056578996</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.45275348486415</v>
+        <v>23.83253030015573</v>
       </c>
       <c r="J6">
-        <v>6.969218662347282</v>
+        <v>11.47791815680243</v>
       </c>
       <c r="K6">
-        <v>10.02402540312966</v>
+        <v>8.790818885899448</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.17363614575838</v>
+        <v>15.81361201860809</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.7790995237241</v>
+        <v>25.78567175673701</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.12043067488678</v>
+        <v>8.440820128248559</v>
       </c>
       <c r="C7">
-        <v>6.430716173089518</v>
+        <v>3.946361531594499</v>
       </c>
       <c r="D7">
-        <v>7.345928924016562</v>
+        <v>10.16814552422253</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.36590358246985</v>
+        <v>34.65688182091532</v>
       </c>
       <c r="G7">
-        <v>2.116077168014448</v>
+        <v>3.667925747455681</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.38914662052134</v>
+        <v>23.80105101930003</v>
       </c>
       <c r="J7">
-        <v>6.978734694092504</v>
+        <v>11.47094556142237</v>
       </c>
       <c r="K7">
-        <v>10.21744147866424</v>
+        <v>8.843098494546927</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.33945738726813</v>
+        <v>15.83478614572186</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.7476341765447</v>
+        <v>25.75630843611603</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.12489443793725</v>
+        <v>8.799381137216676</v>
       </c>
       <c r="C8">
-        <v>6.971764551558985</v>
+        <v>4.192659755303463</v>
       </c>
       <c r="D8">
-        <v>7.785705544925071</v>
+        <v>10.22482988833181</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.58278546091073</v>
+        <v>34.54915518342209</v>
       </c>
       <c r="G8">
-        <v>2.10998771761002</v>
+        <v>3.665611660055741</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.13038462317737</v>
+        <v>23.67138282629192</v>
       </c>
       <c r="J8">
-        <v>7.02862788317115</v>
+        <v>11.44381716826633</v>
       </c>
       <c r="K8">
-        <v>11.02892720872273</v>
+        <v>9.072697594767815</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.05275116902906</v>
+        <v>15.93346589087407</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.63709699255583</v>
+        <v>25.63770629058343</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.8854710775134</v>
+        <v>9.47028056230644</v>
       </c>
       <c r="C9">
-        <v>7.927135711123263</v>
+        <v>4.63902663906244</v>
       </c>
       <c r="D9">
-        <v>8.60709434064252</v>
+        <v>10.34890054960911</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.16384828224631</v>
+        <v>34.39877333221605</v>
       </c>
       <c r="G9">
-        <v>2.098743405977291</v>
+        <v>3.661529135971603</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.70829470867498</v>
+        <v>23.45033503137247</v>
       </c>
       <c r="J9">
-        <v>7.155831220467725</v>
+        <v>11.4036971894992</v>
       </c>
       <c r="K9">
-        <v>12.46596478306816</v>
+        <v>9.515185865979197</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.37392943477867</v>
+        <v>16.14483652623569</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.53102077256591</v>
+        <v>25.44467152478556</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.05198477502031</v>
+        <v>9.938299190709804</v>
       </c>
       <c r="C10">
-        <v>8.564221326028688</v>
+        <v>4.941941359610999</v>
       </c>
       <c r="D10">
-        <v>9.180323034387381</v>
+        <v>10.44737884874842</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.69090651340386</v>
+        <v>34.32556891277305</v>
       </c>
       <c r="G10">
-        <v>2.090872821660217</v>
+        <v>3.65880446077154</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.45703798826116</v>
+        <v>23.30819880466767</v>
       </c>
       <c r="J10">
-        <v>7.267988180245416</v>
+        <v>11.3821883091107</v>
       </c>
       <c r="K10">
-        <v>13.42612368710488</v>
+        <v>9.832347427884782</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.28953870778761</v>
+        <v>16.31008123220781</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.5290151985774</v>
+        <v>25.32705326384215</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.55534966579655</v>
+        <v>10.14486907740386</v>
       </c>
       <c r="C11">
-        <v>8.8400113372275</v>
+        <v>5.073873720653293</v>
       </c>
       <c r="D11">
-        <v>9.433705935477914</v>
+        <v>10.49364368079906</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.95332575511814</v>
+        <v>34.30038946676061</v>
       </c>
       <c r="G11">
-        <v>2.087369062922336</v>
+        <v>3.65762398666008</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.35718519706037</v>
+        <v>23.24794094294406</v>
       </c>
       <c r="J11">
-        <v>7.323225198185648</v>
+        <v>11.37413126647214</v>
       </c>
       <c r="K11">
-        <v>13.84205198381321</v>
+        <v>9.974280982269413</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.76450432705227</v>
+        <v>16.38720414068978</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.54644723167576</v>
+        <v>25.27882155016518</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.74206425999314</v>
+        <v>10.22211337607124</v>
       </c>
       <c r="C12">
-        <v>8.942438516598676</v>
+        <v>5.122960783602683</v>
       </c>
       <c r="D12">
-        <v>9.528541559656885</v>
+        <v>10.51136266742621</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.05601519961571</v>
+        <v>34.29202396621995</v>
       </c>
       <c r="G12">
-        <v>2.086052595885201</v>
+        <v>3.657185409071923</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.32160392473689</v>
+        <v>23.22575607088029</v>
       </c>
       <c r="J12">
-        <v>7.344759603873905</v>
+        <v>11.37132840823454</v>
       </c>
       <c r="K12">
-        <v>13.99655621693902</v>
+        <v>10.02764174733194</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.94892146866554</v>
+        <v>16.41667066604305</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.55584090321603</v>
+        <v>25.26131739806126</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.70202487863938</v>
+        <v>10.20552199560645</v>
       </c>
       <c r="C13">
-        <v>8.920468145803934</v>
+        <v>5.112428245503043</v>
       </c>
       <c r="D13">
-        <v>9.508167333185872</v>
+        <v>10.50753787855315</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.03375080866031</v>
+        <v>34.29377359784584</v>
       </c>
       <c r="G13">
-        <v>2.08633567255376</v>
+        <v>3.657279489776339</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.32916519977069</v>
+        <v>23.23050579514212</v>
       </c>
       <c r="J13">
-        <v>7.34009415632964</v>
+        <v>11.37192102086964</v>
       </c>
       <c r="K13">
-        <v>13.96341426203585</v>
+        <v>10.01616748798559</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.9093707369898</v>
+        <v>16.41031318738985</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.55369113696431</v>
+        <v>25.26505339382931</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.57078876378157</v>
+        <v>10.15124400281495</v>
       </c>
       <c r="C14">
-        <v>8.848478274984064</v>
+        <v>5.077929788037302</v>
       </c>
       <c r="D14">
-        <v>9.441530731816778</v>
+        <v>10.49509750059963</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.96170728985409</v>
+        <v>34.29967778838589</v>
       </c>
       <c r="G14">
-        <v>2.087260553433342</v>
+        <v>3.657587735655027</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.35421227346929</v>
+        <v>23.24610308048383</v>
       </c>
       <c r="J14">
-        <v>7.324984412443082</v>
+        <v>11.37389570151012</v>
       </c>
       <c r="K14">
-        <v>13.85482321489594</v>
+        <v>9.978679019482346</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.77975166462461</v>
+        <v>16.38962323364455</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.54716319894008</v>
+        <v>25.27736622815426</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.48989594851941</v>
+        <v>10.11786773797266</v>
       </c>
       <c r="C15">
-        <v>8.804121145974957</v>
+        <v>5.05668402225828</v>
       </c>
       <c r="D15">
-        <v>9.400567290149798</v>
+        <v>10.48750304707528</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.91801214031898</v>
+        <v>34.30344660368544</v>
       </c>
       <c r="G15">
-        <v>2.087828393906968</v>
+        <v>3.657777643387035</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.36984960833647</v>
+        <v>23.25573938536413</v>
       </c>
       <c r="J15">
-        <v>7.315809974954092</v>
+        <v>11.37513756139657</v>
       </c>
       <c r="K15">
-        <v>13.78791765424021</v>
+        <v>9.955664521686018</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.6998670694916</v>
+        <v>16.3769835575492</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.54353292545294</v>
+        <v>25.28500724238813</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.01854163747511</v>
+        <v>9.924665884784881</v>
       </c>
       <c r="C16">
-        <v>8.545916199032577</v>
+        <v>4.933198618558602</v>
       </c>
       <c r="D16">
-        <v>9.163610493933319</v>
+        <v>10.44438387776714</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.67421793385729</v>
+        <v>34.32737801918259</v>
       </c>
       <c r="G16">
-        <v>2.091103284432307</v>
+        <v>3.658882791136452</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.46386713971125</v>
+        <v>23.31222540572501</v>
       </c>
       <c r="J16">
-        <v>7.264464109022309</v>
+        <v>11.38274959756748</v>
       </c>
       <c r="K16">
-        <v>13.39852199514483</v>
+        <v>9.823020277089874</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.26290526019509</v>
+        <v>16.30507874022727</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.52825830542337</v>
+        <v>25.33031159308494</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.72240832504463</v>
+        <v>9.804469404647463</v>
       </c>
       <c r="C17">
-        <v>8.38392838773979</v>
+        <v>4.855919595893781</v>
       </c>
       <c r="D17">
-        <v>9.016312831783383</v>
+        <v>10.4182992849792</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.53050562174576</v>
+        <v>34.34414056157677</v>
       </c>
       <c r="G17">
-        <v>2.093131470302635</v>
+        <v>3.659575844080521</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.525349194464</v>
+        <v>23.34800531865375</v>
       </c>
       <c r="J17">
-        <v>7.234052994175233</v>
+        <v>11.38786162615139</v>
       </c>
       <c r="K17">
-        <v>13.1542969079271</v>
+        <v>9.741010797088929</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.02801798556502</v>
+        <v>16.26145411427656</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.5236959357017</v>
+        <v>25.35945632218456</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.5495099632955</v>
+        <v>9.734742961502166</v>
       </c>
       <c r="C18">
-        <v>8.289436549501627</v>
+        <v>4.810920124588617</v>
       </c>
       <c r="D18">
-        <v>8.930898750139681</v>
+        <v>10.40343486033609</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.44997579026424</v>
+        <v>34.35454631810649</v>
       </c>
       <c r="G18">
-        <v>2.094305283521505</v>
+        <v>3.659980025054654</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.56206178767771</v>
+        <v>23.36899914322385</v>
       </c>
       <c r="J18">
-        <v>7.216957557676388</v>
+        <v>11.39096454353819</v>
       </c>
       <c r="K18">
-        <v>13.01186182487225</v>
+        <v>9.693623161228256</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.89168499471027</v>
+        <v>16.23654730368337</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.52278910829999</v>
+        <v>25.37671585260076</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.49052740527911</v>
+        <v>9.711035213326777</v>
       </c>
       <c r="C19">
-        <v>8.257216227398642</v>
+        <v>4.795590485706938</v>
       </c>
       <c r="D19">
-        <v>8.901861913185902</v>
+        <v>10.39842619256698</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.42307363000168</v>
+        <v>34.35820075726351</v>
       </c>
       <c r="G19">
-        <v>2.094703982669345</v>
+        <v>3.660117829161462</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.57471937136337</v>
+        <v>23.37617840496649</v>
       </c>
       <c r="J19">
-        <v>7.211237044884196</v>
+        <v>11.39204307346836</v>
       </c>
       <c r="K19">
-        <v>12.96329868927165</v>
+        <v>9.67754263714364</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.84531595929209</v>
+        <v>16.22814661734203</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.52277233029812</v>
+        <v>25.38264480801143</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.7541980715922</v>
+        <v>9.817326377064003</v>
       </c>
       <c r="C20">
-        <v>8.401308913396207</v>
+        <v>4.864203295904292</v>
       </c>
       <c r="D20">
-        <v>9.032064999750403</v>
+        <v>10.42106175650532</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.54558317781155</v>
+        <v>34.34227703652656</v>
       </c>
       <c r="G20">
-        <v>2.092914820491937</v>
+        <v>3.659501492761704</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.5186635563843</v>
+        <v>23.34415361657324</v>
       </c>
       <c r="J20">
-        <v>7.237249219136217</v>
+        <v>11.38730061361542</v>
       </c>
       <c r="K20">
-        <v>13.18049830169149</v>
+        <v>9.749763769473779</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.05315024816173</v>
+        <v>16.26607902780251</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.52400275401875</v>
+        <v>25.35630244215912</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.60944157903756</v>
+        <v>10.16721384912127</v>
       </c>
       <c r="C21">
-        <v>8.869677869896146</v>
+        <v>5.088086721507777</v>
       </c>
       <c r="D21">
-        <v>9.461134147968313</v>
+        <v>10.49874621915763</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.98277776396558</v>
+        <v>34.29791183746726</v>
       </c>
       <c r="G21">
-        <v>2.086988618816875</v>
+        <v>3.657496967570999</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.34679351407439</v>
+        <v>23.24150458193348</v>
       </c>
       <c r="J21">
-        <v>7.329405670022224</v>
+        <v>11.37330895685965</v>
       </c>
       <c r="K21">
-        <v>13.88680038860193</v>
+        <v>9.989701155120501</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.81792579116887</v>
+        <v>16.39569342388329</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.54900358681497</v>
+        <v>25.2737290055998</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.1456825789254</v>
+        <v>10.39015126515024</v>
       </c>
       <c r="C22">
-        <v>9.164083625017943</v>
+        <v>5.229309373465687</v>
       </c>
       <c r="D22">
-        <v>9.735039580625177</v>
+        <v>10.55067484271242</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.28786597759446</v>
+        <v>34.27573316475424</v>
       </c>
       <c r="G22">
-        <v>2.083175366874739</v>
+        <v>3.656236084110493</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.24754918543677</v>
+        <v>23.17811020090718</v>
       </c>
       <c r="J22">
-        <v>7.393238466667008</v>
+        <v>11.36561097088206</v>
       </c>
       <c r="K22">
-        <v>14.33093538157216</v>
+        <v>10.14424124402307</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.34774303287545</v>
+        <v>16.48192055921724</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.58169242879006</v>
+        <v>25.22419404417437</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.86154911393716</v>
+        <v>10.27171074083618</v>
       </c>
       <c r="C23">
-        <v>9.008020560896414</v>
+        <v>5.154411189918969</v>
       </c>
       <c r="D23">
-        <v>9.589462134553193</v>
+        <v>10.52285750461209</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.12324595603777</v>
+        <v>34.28694625513358</v>
       </c>
       <c r="G23">
-        <v>2.085205331700712</v>
+        <v>3.656904553937692</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.2992668341028</v>
+        <v>23.21160686315714</v>
       </c>
       <c r="J23">
-        <v>7.358836457901591</v>
+        <v>11.36958728006072</v>
       </c>
       <c r="K23">
-        <v>14.09548925459811</v>
+        <v>10.06198372890566</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.06696151280446</v>
+        <v>16.43576711055313</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.56269850277713</v>
+        <v>25.25022570590317</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.73983417501938</v>
+        <v>9.811515677828622</v>
       </c>
       <c r="C24">
-        <v>8.393455423397363</v>
+        <v>4.860460010551555</v>
       </c>
       <c r="D24">
-        <v>9.024945716377248</v>
+        <v>10.41981243124939</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.53876010222329</v>
+        <v>34.34311714171445</v>
       </c>
       <c r="G24">
-        <v>2.093012743580301</v>
+        <v>3.659535089124483</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.52168189086428</v>
+        <v>23.34589365201464</v>
       </c>
       <c r="J24">
-        <v>7.235802997145941</v>
+        <v>11.38755373669474</v>
       </c>
       <c r="K24">
-        <v>13.16865896458818</v>
+        <v>9.745807292229443</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.04179197428404</v>
+        <v>16.26398756231456</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.52385870776975</v>
+        <v>25.35772674201774</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.43155538716173</v>
+        <v>9.292809672402369</v>
       </c>
       <c r="C25">
-        <v>7.680061140269134</v>
+        <v>4.52250011995731</v>
       </c>
       <c r="D25">
-        <v>8.389874321257668</v>
+        <v>10.31400856365811</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.98940241036526</v>
+        <v>34.43291937459912</v>
       </c>
       <c r="G25">
-        <v>2.101714099297343</v>
+        <v>3.662585111261054</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.81267580566318</v>
+        <v>23.50657590295293</v>
       </c>
       <c r="J25">
-        <v>7.118189368150736</v>
+        <v>11.4131509581846</v>
       </c>
       <c r="K25">
-        <v>12.09393333970187</v>
+        <v>9.396651888443222</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.02571280567281</v>
+        <v>16.08583738842062</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.54700432503994</v>
+        <v>25.49264887843906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_215/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_215/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.894566086880333</v>
+        <v>12.38289652615834</v>
       </c>
       <c r="C2">
-        <v>4.257033412227463</v>
+        <v>7.111246250178278</v>
       </c>
       <c r="D2">
-        <v>10.2410816369089</v>
+        <v>7.90231626815457</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.52407848195887</v>
+        <v>23.65187224989085</v>
       </c>
       <c r="G2">
-        <v>3.665015584202522</v>
+        <v>2.108386168631854</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.63849788701656</v>
+        <v>15.06581581855234</v>
       </c>
       <c r="J2">
-        <v>11.4373519350174</v>
+        <v>7.04410145117432</v>
       </c>
       <c r="K2">
-        <v>9.134507244806032</v>
+        <v>11.23844543837923</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.96144507318415</v>
+        <v>12.24111071725244</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.60824342392698</v>
+        <v>16.61432972324603</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.616210680144381</v>
+        <v>11.61875326922282</v>
       </c>
       <c r="C3">
-        <v>4.067635136018182</v>
+        <v>6.698720964251622</v>
       </c>
       <c r="D3">
-        <v>10.19494186520907</v>
+        <v>7.561160240064124</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.60141949757784</v>
+        <v>23.46317221215313</v>
       </c>
       <c r="G3">
-        <v>3.666778967141621</v>
+        <v>2.113084811088741</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.73639263940846</v>
+        <v>15.25937929781335</v>
       </c>
       <c r="J3">
-        <v>11.45709493299023</v>
+        <v>7.001429818314868</v>
       </c>
       <c r="K3">
-        <v>8.954745468390767</v>
+        <v>10.61914107125553</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.88167870352883</v>
+        <v>11.68916652813748</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.69668982894278</v>
+        <v>16.68853164440782</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.441786187800343</v>
+        <v>11.12321645907618</v>
       </c>
       <c r="C4">
-        <v>3.947034035510015</v>
+        <v>6.432211994926322</v>
       </c>
       <c r="D4">
-        <v>10.16828796351986</v>
+        <v>7.347115117629502</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.65656064225659</v>
+        <v>23.36639107196606</v>
       </c>
       <c r="G4">
-        <v>3.667919343004601</v>
+        <v>2.116060594246241</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.80068773081309</v>
+        <v>15.38841405460522</v>
       </c>
       <c r="J4">
-        <v>11.4708659654549</v>
+        <v>6.978850316314531</v>
       </c>
       <c r="K4">
-        <v>8.843709814135901</v>
+        <v>10.21968190381297</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.83503682105965</v>
+        <v>11.34138824037852</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.75597084787127</v>
+        <v>16.74728107351963</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.369932457087623</v>
+        <v>10.91467072207376</v>
       </c>
       <c r="C5">
-        <v>3.896869630099502</v>
+        <v>6.32031226266459</v>
       </c>
       <c r="D5">
-        <v>10.15785602851997</v>
+        <v>7.25886565523886</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.68095209816802</v>
+        <v>23.33164048692521</v>
       </c>
       <c r="G5">
-        <v>3.668398597183369</v>
+        <v>2.117296572519125</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.82794128628838</v>
+        <v>15.44346566429551</v>
       </c>
       <c r="J5">
-        <v>11.47689242330085</v>
+        <v>6.970544270479308</v>
       </c>
       <c r="K5">
-        <v>8.798354767817534</v>
+        <v>10.05213255429737</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.81663147101093</v>
+        <v>11.19762500727187</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.78137758531409</v>
+        <v>16.77440676021827</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.357957782910299</v>
+        <v>10.87964329423572</v>
       </c>
       <c r="C6">
-        <v>3.888480443538578</v>
+        <v>6.301533409803839</v>
       </c>
       <c r="D6">
-        <v>10.15615000080562</v>
+        <v>7.244154021915032</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.68511819304872</v>
+        <v>23.32614994028162</v>
       </c>
       <c r="G6">
-        <v>3.668479056578996</v>
+        <v>2.117503228367815</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.83253030015573</v>
+        <v>15.45275348486427</v>
       </c>
       <c r="J6">
-        <v>11.47791815680243</v>
+        <v>6.969218662347259</v>
       </c>
       <c r="K6">
-        <v>8.790818885899448</v>
+        <v>10.02402540312962</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.81361201860809</v>
+        <v>11.17363614575837</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.78567175673701</v>
+        <v>16.77909952372421</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.440820128248559</v>
+        <v>11.12043067488676</v>
       </c>
       <c r="C7">
-        <v>3.946361531594499</v>
+        <v>6.430716173089627</v>
       </c>
       <c r="D7">
-        <v>10.16814552422253</v>
+        <v>7.345928924016616</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.65688182091532</v>
+        <v>23.3659035824699</v>
       </c>
       <c r="G7">
-        <v>3.667925747455681</v>
+        <v>2.116077168014448</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.80105101930003</v>
+        <v>15.38914662052145</v>
       </c>
       <c r="J7">
-        <v>11.47094556142237</v>
+        <v>6.978734694092455</v>
       </c>
       <c r="K7">
-        <v>8.843098494546927</v>
+        <v>10.21744147866423</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.83478614572186</v>
+        <v>11.33945738726813</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.75630843611603</v>
+        <v>16.74763417654471</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.799381137216676</v>
+        <v>12.12489443793734</v>
       </c>
       <c r="C8">
-        <v>4.192659755303463</v>
+        <v>6.971764551558985</v>
       </c>
       <c r="D8">
-        <v>10.22482988833181</v>
+        <v>7.785705544925099</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.54915518342209</v>
+        <v>23.5827854609106</v>
       </c>
       <c r="G8">
-        <v>3.665611660055741</v>
+        <v>2.109987717610018</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.67138282629192</v>
+        <v>15.13038462317723</v>
       </c>
       <c r="J8">
-        <v>11.44381716826633</v>
+        <v>7.028627883171186</v>
       </c>
       <c r="K8">
-        <v>9.072697594767815</v>
+        <v>11.02892720872277</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.93346589087407</v>
+        <v>12.05275116902904</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.63770629058343</v>
+        <v>16.63709699255565</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.47028056230644</v>
+        <v>13.8854710775134</v>
       </c>
       <c r="C9">
-        <v>4.63902663906244</v>
+        <v>7.927135711123248</v>
       </c>
       <c r="D9">
-        <v>10.34890054960911</v>
+        <v>8.607094340642432</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.39877333221605</v>
+        <v>24.1638482822462</v>
       </c>
       <c r="G9">
-        <v>3.661529135971603</v>
+        <v>2.098743405977024</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.45033503137247</v>
+        <v>14.70829470867499</v>
       </c>
       <c r="J9">
-        <v>11.4036971894992</v>
+        <v>7.155831220467817</v>
       </c>
       <c r="K9">
-        <v>9.515185865979197</v>
+        <v>12.46596478306814</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.14483652623569</v>
+        <v>13.37392943477865</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.44467152478556</v>
+        <v>16.53102077256591</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.938299190709804</v>
+        <v>15.05198477502031</v>
       </c>
       <c r="C10">
-        <v>4.941941359610999</v>
+        <v>8.564221326028628</v>
       </c>
       <c r="D10">
-        <v>10.44737884874842</v>
+        <v>9.180323034387323</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.32556891277305</v>
+        <v>24.69090651340379</v>
       </c>
       <c r="G10">
-        <v>3.65880446077154</v>
+        <v>2.090872821660216</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.30819880466767</v>
+        <v>14.45703798826117</v>
       </c>
       <c r="J10">
-        <v>11.3821883091107</v>
+        <v>7.26798818024542</v>
       </c>
       <c r="K10">
-        <v>9.832347427884782</v>
+        <v>13.42612368710486</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.31008123220781</v>
+        <v>14.28953870778759</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.32705326384215</v>
+        <v>16.5290151985774</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.14486907740386</v>
+        <v>15.55534966579663</v>
       </c>
       <c r="C11">
-        <v>5.073873720653293</v>
+        <v>8.840011337227439</v>
       </c>
       <c r="D11">
-        <v>10.49364368079906</v>
+        <v>9.433705935477905</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.30038946676061</v>
+        <v>24.95332575511802</v>
       </c>
       <c r="G11">
-        <v>3.65762398666008</v>
+        <v>2.087369062922468</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.24794094294406</v>
+        <v>14.35718519706023</v>
       </c>
       <c r="J11">
-        <v>11.37413126647214</v>
+        <v>7.32322519818565</v>
       </c>
       <c r="K11">
-        <v>9.974280982269413</v>
+        <v>13.84205198381328</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.38720414068978</v>
+        <v>14.76450432705231</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.27882155016518</v>
+        <v>16.54644723167565</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.22211337607124</v>
+        <v>15.74206425999315</v>
       </c>
       <c r="C12">
-        <v>5.122960783602683</v>
+        <v>8.942438516598527</v>
       </c>
       <c r="D12">
-        <v>10.51136266742621</v>
+        <v>9.528541559656942</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.29202396621995</v>
+        <v>25.05601519961576</v>
       </c>
       <c r="G12">
-        <v>3.657185409071923</v>
+        <v>2.086052595885201</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.22575607088029</v>
+        <v>14.32160392473687</v>
       </c>
       <c r="J12">
-        <v>11.37132840823454</v>
+        <v>7.344759603873867</v>
       </c>
       <c r="K12">
-        <v>10.02764174733194</v>
+        <v>13.99655621693898</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.41667066604305</v>
+        <v>14.94892146866554</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.26131739806126</v>
+        <v>16.55584090321601</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.20552199560645</v>
+        <v>15.70202487863937</v>
       </c>
       <c r="C13">
-        <v>5.112428245503043</v>
+        <v>8.920468145803845</v>
       </c>
       <c r="D13">
-        <v>10.50753787855315</v>
+        <v>9.508167333185874</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.29377359784584</v>
+        <v>25.03375080866026</v>
       </c>
       <c r="G13">
-        <v>3.657279489776339</v>
+        <v>2.086335672554028</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.23050579514212</v>
+        <v>14.32916519977062</v>
       </c>
       <c r="J13">
-        <v>11.37192102086964</v>
+        <v>7.34009415632966</v>
       </c>
       <c r="K13">
-        <v>10.01616748798559</v>
+        <v>13.96341426203584</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.41031318738985</v>
+        <v>14.90937073698978</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.26505339382931</v>
+        <v>16.55369113696425</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.15124400281495</v>
+        <v>15.57078876378163</v>
       </c>
       <c r="C14">
-        <v>5.077929788037302</v>
+        <v>8.848478274983988</v>
       </c>
       <c r="D14">
-        <v>10.49509750059963</v>
+        <v>9.441530731816741</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.29967778838589</v>
+        <v>24.96170728985405</v>
       </c>
       <c r="G14">
-        <v>3.657587735655027</v>
+        <v>2.087260553433343</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.24610308048383</v>
+        <v>14.35421227346927</v>
       </c>
       <c r="J14">
-        <v>11.37389570151012</v>
+        <v>7.324984412443122</v>
       </c>
       <c r="K14">
-        <v>9.978679019482346</v>
+        <v>13.85482321489598</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.38962323364455</v>
+        <v>14.77975166462462</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.27736622815426</v>
+        <v>16.54716319894009</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.11786773797266</v>
+        <v>15.4898959485194</v>
       </c>
       <c r="C15">
-        <v>5.05668402225828</v>
+        <v>8.804121145975</v>
       </c>
       <c r="D15">
-        <v>10.48750304707528</v>
+        <v>9.400567290149755</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.30344660368544</v>
+        <v>24.9180121403189</v>
       </c>
       <c r="G15">
-        <v>3.657777643387035</v>
+        <v>2.087828393906702</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.25573938536413</v>
+        <v>14.3698496083364</v>
       </c>
       <c r="J15">
-        <v>11.37513756139657</v>
+        <v>7.315809974954086</v>
       </c>
       <c r="K15">
-        <v>9.955664521686018</v>
+        <v>13.78791765424021</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.3769835575492</v>
+        <v>14.69986706949161</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.28500724238813</v>
+        <v>16.54353292545288</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.924665884784881</v>
+        <v>15.01854163747505</v>
       </c>
       <c r="C16">
-        <v>4.933198618558602</v>
+        <v>8.545916199032545</v>
       </c>
       <c r="D16">
-        <v>10.44438387776714</v>
+        <v>9.163610493933277</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.32737801918259</v>
+        <v>24.67421793385732</v>
       </c>
       <c r="G16">
-        <v>3.658882791136452</v>
+        <v>2.091103284432173</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.31222540572501</v>
+        <v>14.46386713971139</v>
       </c>
       <c r="J16">
-        <v>11.38274959756748</v>
+        <v>7.264464109022351</v>
       </c>
       <c r="K16">
-        <v>9.823020277089874</v>
+        <v>13.3985219951448</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.30507874022727</v>
+        <v>14.26290526019508</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.33031159308494</v>
+        <v>16.52825830542344</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.804469404647463</v>
+        <v>14.72240832504458</v>
       </c>
       <c r="C17">
-        <v>4.855919595893781</v>
+        <v>8.383928387739878</v>
       </c>
       <c r="D17">
-        <v>10.4182992849792</v>
+        <v>9.016312831783416</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.34414056157677</v>
+        <v>24.53050562174582</v>
       </c>
       <c r="G17">
-        <v>3.659575844080521</v>
+        <v>2.093131470302767</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.34800531865375</v>
+        <v>14.52534919446409</v>
       </c>
       <c r="J17">
-        <v>11.38786162615139</v>
+        <v>7.234052994175267</v>
       </c>
       <c r="K17">
-        <v>9.741010797088929</v>
+        <v>13.15429690792711</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.26145411427656</v>
+        <v>14.02801798556501</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.35945632218456</v>
+        <v>16.52369593570172</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.734742961502166</v>
+        <v>14.54950996329558</v>
       </c>
       <c r="C18">
-        <v>4.810920124588617</v>
+        <v>8.289436549501414</v>
       </c>
       <c r="D18">
-        <v>10.40343486033609</v>
+        <v>8.930898750139614</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>34.35454631810649</v>
+        <v>24.44997579026414</v>
       </c>
       <c r="G18">
-        <v>3.659980025054654</v>
+        <v>2.09430528352124</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.36899914322385</v>
+        <v>14.56206178767757</v>
       </c>
       <c r="J18">
-        <v>11.39096454353819</v>
+        <v>7.216957557676413</v>
       </c>
       <c r="K18">
-        <v>9.693623161228256</v>
+        <v>13.01186182487224</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.23654730368337</v>
+        <v>13.89168499471027</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.37671585260076</v>
+        <v>16.52278910829995</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.711035213326777</v>
+        <v>14.49052740527911</v>
       </c>
       <c r="C19">
-        <v>4.795590485706938</v>
+        <v>8.257216227398413</v>
       </c>
       <c r="D19">
-        <v>10.39842619256698</v>
+        <v>8.901861913185902</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>34.35820075726351</v>
+        <v>24.42307363000182</v>
       </c>
       <c r="G19">
-        <v>3.660117829161462</v>
+        <v>2.09470398266921</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.37617840496649</v>
+        <v>14.57471937136346</v>
       </c>
       <c r="J19">
-        <v>11.39204307346836</v>
+        <v>7.211237044884218</v>
       </c>
       <c r="K19">
-        <v>9.67754263714364</v>
+        <v>12.9632986892716</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.22814661734203</v>
+        <v>13.8453159592921</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.38264480801143</v>
+        <v>16.52277233029826</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.817326377064003</v>
+        <v>14.75419807159234</v>
       </c>
       <c r="C20">
-        <v>4.864203295904292</v>
+        <v>8.401308913396131</v>
       </c>
       <c r="D20">
-        <v>10.42106175650532</v>
+        <v>9.032064999750359</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.34227703652656</v>
+        <v>24.54558317781129</v>
       </c>
       <c r="G20">
-        <v>3.659501492761704</v>
+        <v>2.092914820491938</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.34415361657324</v>
+        <v>14.51866355638405</v>
       </c>
       <c r="J20">
-        <v>11.38730061361542</v>
+        <v>7.237249219136197</v>
       </c>
       <c r="K20">
-        <v>9.749763769473779</v>
+        <v>13.18049830169157</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.26607902780251</v>
+        <v>14.05315024816171</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.35630244215912</v>
+        <v>16.52400275401851</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.16721384912127</v>
+        <v>15.60944157903752</v>
       </c>
       <c r="C21">
-        <v>5.088086721507777</v>
+        <v>8.869677869896222</v>
       </c>
       <c r="D21">
-        <v>10.49874621915763</v>
+        <v>9.461134147968247</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.29791183746726</v>
+        <v>24.98277776396552</v>
       </c>
       <c r="G21">
-        <v>3.657496967570999</v>
+        <v>2.086988618816477</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.24150458193348</v>
+        <v>14.3467935140744</v>
       </c>
       <c r="J21">
-        <v>11.37330895685965</v>
+        <v>7.329405670022257</v>
       </c>
       <c r="K21">
-        <v>9.989701155120501</v>
+        <v>13.88680038860193</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.39569342388329</v>
+        <v>14.81792579116891</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.2737290055998</v>
+        <v>16.54900358681493</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.39015126515024</v>
+        <v>16.14568257892538</v>
       </c>
       <c r="C22">
-        <v>5.229309373465687</v>
+        <v>9.164083625017899</v>
       </c>
       <c r="D22">
-        <v>10.55067484271242</v>
+        <v>9.735039580625157</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.27573316475424</v>
+        <v>25.28786597759445</v>
       </c>
       <c r="G22">
-        <v>3.656236084110493</v>
+        <v>2.083175366874737</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.17811020090718</v>
+        <v>14.24754918543681</v>
       </c>
       <c r="J22">
-        <v>11.36561097088206</v>
+        <v>7.393238466667014</v>
       </c>
       <c r="K22">
-        <v>10.14424124402307</v>
+        <v>14.33093538157219</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.48192055921724</v>
+        <v>15.34774303287546</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.22419404417437</v>
+        <v>16.58169242879007</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.27171074083618</v>
+        <v>15.86154911393714</v>
       </c>
       <c r="C23">
-        <v>5.154411189918969</v>
+        <v>9.008020560896458</v>
       </c>
       <c r="D23">
-        <v>10.52285750461209</v>
+        <v>9.589462134553166</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.28694625513358</v>
+        <v>25.12324595603777</v>
       </c>
       <c r="G23">
-        <v>3.656904553937692</v>
+        <v>2.085205331700577</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.21160686315714</v>
+        <v>14.29926683410285</v>
       </c>
       <c r="J23">
-        <v>11.36958728006072</v>
+        <v>7.358836457901609</v>
       </c>
       <c r="K23">
-        <v>10.06198372890566</v>
+        <v>14.09548925459809</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.43576711055313</v>
+        <v>15.06696151280444</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.25022570590317</v>
+        <v>16.56269850277713</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.811515677828622</v>
+        <v>14.73983417501933</v>
       </c>
       <c r="C24">
-        <v>4.860460010551555</v>
+        <v>8.393455423397528</v>
       </c>
       <c r="D24">
-        <v>10.41981243124939</v>
+        <v>9.024945716377182</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.34311714171445</v>
+        <v>24.5387601022234</v>
       </c>
       <c r="G24">
-        <v>3.659535089124483</v>
+        <v>2.093012743580435</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.34589365201464</v>
+        <v>14.5216818908645</v>
       </c>
       <c r="J24">
-        <v>11.38755373669474</v>
+        <v>7.235802997146005</v>
       </c>
       <c r="K24">
-        <v>9.745807292229443</v>
+        <v>13.16865896458819</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.26398756231456</v>
+        <v>14.04179197428402</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.35772674201774</v>
+        <v>16.5238587077699</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.292809672402369</v>
+        <v>13.43155538716173</v>
       </c>
       <c r="C25">
-        <v>4.52250011995731</v>
+        <v>7.68006114026906</v>
       </c>
       <c r="D25">
-        <v>10.31400856365811</v>
+        <v>8.389874321257631</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>34.43291937459912</v>
+        <v>23.98940241036529</v>
       </c>
       <c r="G25">
-        <v>3.662585111261054</v>
+        <v>2.101714099297345</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.50657590295293</v>
+        <v>14.81267580566321</v>
       </c>
       <c r="J25">
-        <v>11.4131509581846</v>
+        <v>7.11818936815074</v>
       </c>
       <c r="K25">
-        <v>9.396651888443222</v>
+        <v>12.0939333397018</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.08583738842062</v>
+        <v>13.0257128056728</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.49264887843906</v>
+        <v>16.54700432504001</v>
       </c>
     </row>
   </sheetData>
